--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_12_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_12_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1464632.140160631</v>
+        <v>1423196.572855597</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2537718.247916807</v>
+        <v>2537718.247916812</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8572459.979953736</v>
+        <v>8572459.97995374</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8178826.940231832</v>
+        <v>8178826.940231831</v>
       </c>
     </row>
     <row r="11">
@@ -1378,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>404.5434242311923</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>404.5434242311923</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>77.88535714894982</v>
       </c>
       <c r="I11" t="n">
-        <v>55.01212945740745</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,25 +1417,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1448,13 +1448,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -1496,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>107.0131712246501</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>66.75381266301046</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1548,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>50.09791697323062</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>189.596843649344</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1612,19 +1612,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>404.5434242311923</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>404.5434242311923</v>
+        <v>404.5434242311915</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>24.25186060108173</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>131.8032952184627</v>
       </c>
     </row>
     <row r="15">
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.5310119231965</v>
+        <v>116.1798689892031</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1742,16 +1742,16 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>66.75381266301046</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1767,19 +1767,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>30.60408762095413</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>139.8939792152982</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>289.8526611205789</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1861,10 +1861,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>134.7923102091714</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1979,7 +1979,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8879277888683</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>94.63926978364032</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2061,10 +2061,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>89.07602811714247</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2092,10 +2092,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>275.6278529115021</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,25 +2128,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>81.12200652863734</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2177,7 +2177,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H21" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I21" t="n">
         <v>61.42221998250818</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>38.73452730914808</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,13 +2320,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2365,22 +2365,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>206.9109327655374</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>71.82193531574917</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2478,16 +2478,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>168.7756050755991</v>
+        <v>208.342310594081</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2560,22 +2560,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>106.4402024816938</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>56.63772345438463</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2651,7 +2651,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H27" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I27" t="n">
         <v>61.42221998250818</v>
@@ -2766,19 +2766,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>156.1271626621473</v>
       </c>
       <c r="X28" t="n">
-        <v>128.7835007017899</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2794,25 +2794,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>367.7543811680899</v>
       </c>
       <c r="F29" t="n">
-        <v>99.77489058317127</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,22 +2839,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2952,25 +2952,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>91.82580793753503</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>70.18226380646165</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3037,19 +3037,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>158.8760189832833</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>303.5313813159055</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,22 +3076,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3128,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,22 +3189,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>30.28266751616601</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3249,10 +3249,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>168.7756050755993</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>64.46452822738385</v>
       </c>
       <c r="G35" t="n">
-        <v>163.3224055697209</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3313,16 +3313,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3359,13 +3359,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.5310119231958</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H36" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>160.2491677474086</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>128.6652719985049</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3505,10 +3505,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3520,10 +3520,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,25 +3550,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>26.12399114113754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>130.9073377169609</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3599,10 +3599,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H39" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>9.461970681989575</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>128.7835007017901</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>18.70780325671194</v>
+        <v>320.8620575448017</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3818,13 +3818,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -3833,10 +3833,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>108.1311476900176</v>
+        <v>40.30833304583069</v>
       </c>
       <c r="H42" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3866,16 +3866,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T42" t="n">
         <v>196.8897623984489</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8879277888686</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3903,22 +3903,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>132.9342137328513</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
-        <v>73.31370764131945</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>404.5434242311923</v>
+        <v>404.5434242311916</v>
       </c>
       <c r="G44" t="n">
-        <v>404.5434242311923</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>24.25186060108164</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,19 +4024,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>226.0284810078178</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4055,16 +4055,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>44.9206997631504</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4103,16 +4103,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229331</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>156.5912426325231</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>196.8897623984489</v>
+        <v>177.1141063716978</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8879277888686</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>62.27914576410206</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>128.7835007017904</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1618.173696924769</v>
+        <v>111.0355518667275</v>
       </c>
       <c r="C11" t="n">
-        <v>1618.173696924769</v>
+        <v>111.0355518667275</v>
       </c>
       <c r="D11" t="n">
-        <v>1618.173696924769</v>
+        <v>111.0355518667275</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.385444326525</v>
+        <v>111.0355518667275</v>
       </c>
       <c r="F11" t="n">
-        <v>823.7557228808762</v>
+        <v>111.0355518667275</v>
       </c>
       <c r="G11" t="n">
-        <v>415.1260014352274</v>
+        <v>111.0355518667275</v>
       </c>
       <c r="H11" t="n">
-        <v>87.93128147123019</v>
+        <v>32.36347393849532</v>
       </c>
       <c r="I11" t="n">
-        <v>32.36347393849539</v>
+        <v>32.36347393849532</v>
       </c>
       <c r="J11" t="n">
-        <v>69.69824328069797</v>
+        <v>148.1313301714451</v>
       </c>
       <c r="K11" t="n">
-        <v>69.69824328069797</v>
+        <v>148.1313301714451</v>
       </c>
       <c r="L11" t="n">
-        <v>470.1962332695784</v>
+        <v>548.6293201603247</v>
       </c>
       <c r="M11" t="n">
-        <v>870.6942232584588</v>
+        <v>817.1777169470067</v>
       </c>
       <c r="N11" t="n">
-        <v>911.8274667873259</v>
+        <v>1217.675706935886</v>
       </c>
       <c r="O11" t="n">
-        <v>1312.325456776206</v>
+        <v>1618.173696924766</v>
       </c>
       <c r="P11" t="n">
-        <v>1618.173696924769</v>
+        <v>1618.173696924766</v>
       </c>
       <c r="Q11" t="n">
-        <v>1618.173696924769</v>
+        <v>1618.173696924766</v>
       </c>
       <c r="R11" t="n">
-        <v>1618.173696924769</v>
+        <v>1563.145007455259</v>
       </c>
       <c r="S11" t="n">
-        <v>1618.173696924769</v>
+        <v>1386.967519769429</v>
       </c>
       <c r="T11" t="n">
-        <v>1618.173696924769</v>
+        <v>1168.332852741492</v>
       </c>
       <c r="U11" t="n">
-        <v>1618.173696924769</v>
+        <v>1168.332852741492</v>
       </c>
       <c r="V11" t="n">
-        <v>1618.173696924769</v>
+        <v>837.2699653979215</v>
       </c>
       <c r="W11" t="n">
-        <v>1618.173696924769</v>
+        <v>484.5013101278074</v>
       </c>
       <c r="X11" t="n">
-        <v>1618.173696924769</v>
+        <v>111.0355518667275</v>
       </c>
       <c r="Y11" t="n">
-        <v>1618.173696924769</v>
+        <v>111.0355518667275</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>966.9184673352141</v>
+        <v>817.9840576739629</v>
       </c>
       <c r="C12" t="n">
-        <v>792.4654380540871</v>
+        <v>643.5310283928359</v>
       </c>
       <c r="D12" t="n">
         <v>643.5310283928359</v>
       </c>
       <c r="E12" t="n">
-        <v>484.2935733873804</v>
+        <v>484.2935733873803</v>
       </c>
       <c r="F12" t="n">
-        <v>337.7590154142654</v>
+        <v>337.7590154142653</v>
       </c>
       <c r="G12" t="n">
-        <v>199.8489023605315</v>
+        <v>199.8489023605314</v>
       </c>
       <c r="H12" t="n">
-        <v>94.40612038547334</v>
+        <v>94.40612038547329</v>
       </c>
       <c r="I12" t="n">
-        <v>32.36347393849539</v>
+        <v>32.36347393849532</v>
       </c>
       <c r="J12" t="n">
-        <v>32.36347393849539</v>
+        <v>32.36347393849532</v>
       </c>
       <c r="K12" t="n">
-        <v>287.6107943795939</v>
+        <v>32.36347393849532</v>
       </c>
       <c r="L12" t="n">
-        <v>325.0947706248412</v>
+        <v>69.84745018374261</v>
       </c>
       <c r="M12" t="n">
-        <v>480.9329033321796</v>
+        <v>470.3454401726223</v>
       </c>
       <c r="N12" t="n">
-        <v>881.43089332106</v>
+        <v>709.3579094554605</v>
       </c>
       <c r="O12" t="n">
-        <v>1281.92888330994</v>
+        <v>1109.85589944434</v>
       </c>
       <c r="P12" t="n">
-        <v>1618.173696924769</v>
+        <v>1446.100713059169</v>
       </c>
       <c r="Q12" t="n">
-        <v>1618.173696924769</v>
+        <v>1618.173696924766</v>
       </c>
       <c r="R12" t="n">
-        <v>1618.173696924769</v>
+        <v>1567.960326336591</v>
       </c>
       <c r="S12" t="n">
-        <v>1618.173696924769</v>
+        <v>1567.960326336591</v>
       </c>
       <c r="T12" t="n">
-        <v>1618.173696924769</v>
+        <v>1369.08177845937</v>
       </c>
       <c r="U12" t="n">
-        <v>1618.173696924769</v>
+        <v>1260.987666111238</v>
       </c>
       <c r="V12" t="n">
-        <v>1618.173696924769</v>
+        <v>1025.835557879496</v>
       </c>
       <c r="W12" t="n">
-        <v>1550.745603325769</v>
+        <v>1025.835557879496</v>
       </c>
       <c r="X12" t="n">
-        <v>1342.894103120236</v>
+        <v>817.9840576739629</v>
       </c>
       <c r="Y12" t="n">
-        <v>1135.133804355282</v>
+        <v>817.9840576739629</v>
       </c>
     </row>
     <row r="13">
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>214.3489092727128</v>
+        <v>32.36347393849532</v>
       </c>
       <c r="C13" t="n">
-        <v>214.3489092727128</v>
+        <v>32.36347393849532</v>
       </c>
       <c r="D13" t="n">
-        <v>214.3489092727128</v>
+        <v>32.36347393849532</v>
       </c>
       <c r="E13" t="n">
-        <v>214.3489092727128</v>
+        <v>32.36347393849532</v>
       </c>
       <c r="F13" t="n">
-        <v>214.3489092727128</v>
+        <v>32.36347393849532</v>
       </c>
       <c r="G13" t="n">
-        <v>214.3489092727128</v>
+        <v>32.36347393849532</v>
       </c>
       <c r="H13" t="n">
-        <v>214.3489092727128</v>
+        <v>32.36347393849532</v>
       </c>
       <c r="I13" t="n">
-        <v>78.01999837136105</v>
+        <v>32.36347393849532</v>
       </c>
       <c r="J13" t="n">
-        <v>32.36347393849539</v>
+        <v>32.36347393849532</v>
       </c>
       <c r="K13" t="n">
-        <v>88.66566700476353</v>
+        <v>88.66566700476346</v>
       </c>
       <c r="L13" t="n">
-        <v>216.239524565922</v>
+        <v>216.2395245659219</v>
       </c>
       <c r="M13" t="n">
         <v>361.1373932839518</v>
@@ -5223,28 +5223,28 @@
         <v>706.5494763245651</v>
       </c>
       <c r="R13" t="n">
-        <v>655.9455197859484</v>
+        <v>706.5494763245651</v>
       </c>
       <c r="S13" t="n">
-        <v>441.6570966041111</v>
+        <v>515.0375130423995</v>
       </c>
       <c r="T13" t="n">
-        <v>214.3489092727128</v>
+        <v>515.0375130423995</v>
       </c>
       <c r="U13" t="n">
-        <v>214.3489092727128</v>
+        <v>515.0375130423995</v>
       </c>
       <c r="V13" t="n">
-        <v>214.3489092727128</v>
+        <v>260.3530248365126</v>
       </c>
       <c r="W13" t="n">
-        <v>214.3489092727128</v>
+        <v>260.3530248365126</v>
       </c>
       <c r="X13" t="n">
-        <v>214.3489092727128</v>
+        <v>32.36347393849532</v>
       </c>
       <c r="Y13" t="n">
-        <v>214.3489092727128</v>
+        <v>32.36347393849532</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1593.676868034788</v>
+        <v>1153.976167946385</v>
       </c>
       <c r="C14" t="n">
-        <v>1593.676868034788</v>
+        <v>1153.976167946385</v>
       </c>
       <c r="D14" t="n">
-        <v>1235.411169428037</v>
+        <v>1153.976167946385</v>
       </c>
       <c r="E14" t="n">
-        <v>849.622916829793</v>
+        <v>768.1879153481405</v>
       </c>
       <c r="F14" t="n">
-        <v>440.9931953841442</v>
+        <v>768.1879153481405</v>
       </c>
       <c r="G14" t="n">
-        <v>32.36347393849539</v>
+        <v>359.5581939024925</v>
       </c>
       <c r="H14" t="n">
-        <v>32.36347393849539</v>
+        <v>32.36347393849532</v>
       </c>
       <c r="I14" t="n">
-        <v>32.36347393849539</v>
+        <v>32.36347393849532</v>
       </c>
       <c r="J14" t="n">
-        <v>32.36347393849539</v>
+        <v>32.36347393849532</v>
       </c>
       <c r="K14" t="n">
         <v>326.6142849584938</v>
       </c>
       <c r="L14" t="n">
-        <v>330.4504606026427</v>
+        <v>623.5869421911693</v>
       </c>
       <c r="M14" t="n">
-        <v>730.9484505915232</v>
+        <v>1024.084932180049</v>
       </c>
       <c r="N14" t="n">
-        <v>1131.446440580404</v>
+        <v>1065.218175708916</v>
       </c>
       <c r="O14" t="n">
-        <v>1465.716165697799</v>
+        <v>1465.716165697796</v>
       </c>
       <c r="P14" t="n">
-        <v>1465.716165697799</v>
+        <v>1465.716165697796</v>
       </c>
       <c r="Q14" t="n">
-        <v>1618.173696924769</v>
+        <v>1618.173696924766</v>
       </c>
       <c r="R14" t="n">
-        <v>1618.173696924769</v>
+        <v>1618.173696924766</v>
       </c>
       <c r="S14" t="n">
-        <v>1618.173696924769</v>
+        <v>1618.173696924766</v>
       </c>
       <c r="T14" t="n">
-        <v>1618.173696924769</v>
+        <v>1618.173696924766</v>
       </c>
       <c r="U14" t="n">
-        <v>1618.173696924769</v>
+        <v>1618.173696924766</v>
       </c>
       <c r="V14" t="n">
-        <v>1593.676868034788</v>
+        <v>1287.110809581196</v>
       </c>
       <c r="W14" t="n">
-        <v>1593.676868034788</v>
+        <v>1287.110809581196</v>
       </c>
       <c r="X14" t="n">
-        <v>1593.676868034788</v>
+        <v>1287.110809581196</v>
       </c>
       <c r="Y14" t="n">
-        <v>1593.676868034788</v>
+        <v>1153.976167946385</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>966.9184673352141</v>
+        <v>778.8763288788412</v>
       </c>
       <c r="C15" t="n">
-        <v>792.4654380540871</v>
+        <v>604.4232995977142</v>
       </c>
       <c r="D15" t="n">
-        <v>643.5310283928359</v>
+        <v>455.4888899364629</v>
       </c>
       <c r="E15" t="n">
-        <v>484.2935733873804</v>
+        <v>296.2514349310074</v>
       </c>
       <c r="F15" t="n">
-        <v>337.7590154142654</v>
+        <v>149.7168769578924</v>
       </c>
       <c r="G15" t="n">
-        <v>199.8489023605315</v>
+        <v>32.36347393849532</v>
       </c>
       <c r="H15" t="n">
-        <v>94.40612038547334</v>
+        <v>32.36347393849532</v>
       </c>
       <c r="I15" t="n">
-        <v>32.36347393849539</v>
+        <v>32.36347393849532</v>
       </c>
       <c r="J15" t="n">
-        <v>32.36347393849539</v>
+        <v>32.36347393849532</v>
       </c>
       <c r="K15" t="n">
-        <v>208.2770427758045</v>
+        <v>32.36347393849532</v>
       </c>
       <c r="L15" t="n">
-        <v>245.7610190210518</v>
+        <v>395.7130542968358</v>
       </c>
       <c r="M15" t="n">
-        <v>308.8599194665828</v>
+        <v>796.2110442857154</v>
       </c>
       <c r="N15" t="n">
-        <v>709.3579094554632</v>
+        <v>1196.709034274595</v>
       </c>
       <c r="O15" t="n">
-        <v>1109.855899444344</v>
+        <v>1597.207024263475</v>
       </c>
       <c r="P15" t="n">
-        <v>1446.100713059172</v>
+        <v>1618.173696924766</v>
       </c>
       <c r="Q15" t="n">
-        <v>1618.173696924769</v>
+        <v>1618.173696924766</v>
       </c>
       <c r="R15" t="n">
-        <v>1618.173696924769</v>
+        <v>1618.173696924766</v>
       </c>
       <c r="S15" t="n">
-        <v>1618.173696924769</v>
+        <v>1618.173696924766</v>
       </c>
       <c r="T15" t="n">
-        <v>1618.173696924769</v>
+        <v>1618.173696924766</v>
       </c>
       <c r="U15" t="n">
-        <v>1618.173696924769</v>
+        <v>1390.004072895606</v>
       </c>
       <c r="V15" t="n">
-        <v>1618.173696924769</v>
+        <v>1154.851964663863</v>
       </c>
       <c r="W15" t="n">
-        <v>1550.745603325769</v>
+        <v>1154.851964663863</v>
       </c>
       <c r="X15" t="n">
-        <v>1342.894103120236</v>
+        <v>1154.851964663863</v>
       </c>
       <c r="Y15" t="n">
-        <v>1135.133804355282</v>
+        <v>947.0916658989092</v>
       </c>
     </row>
     <row r="16">
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>677.1325571781871</v>
+        <v>32.36347393849532</v>
       </c>
       <c r="C16" t="n">
-        <v>508.1963742502802</v>
+        <v>32.36347393849532</v>
       </c>
       <c r="D16" t="n">
-        <v>358.0797348379444</v>
+        <v>32.36347393849532</v>
       </c>
       <c r="E16" t="n">
-        <v>210.1666412555513</v>
+        <v>32.36347393849532</v>
       </c>
       <c r="F16" t="n">
-        <v>63.27669375764097</v>
+        <v>32.36347393849532</v>
       </c>
       <c r="G16" t="n">
-        <v>32.36347393849539</v>
+        <v>32.36347393849532</v>
       </c>
       <c r="H16" t="n">
-        <v>32.36347393849539</v>
+        <v>32.36347393849532</v>
       </c>
       <c r="I16" t="n">
-        <v>32.36347393849539</v>
+        <v>32.36347393849532</v>
       </c>
       <c r="J16" t="n">
-        <v>32.36347393849539</v>
+        <v>32.36347393849532</v>
       </c>
       <c r="K16" t="n">
-        <v>88.66566700476353</v>
+        <v>88.66566700476346</v>
       </c>
       <c r="L16" t="n">
-        <v>216.239524565922</v>
+        <v>216.2395245659219</v>
       </c>
       <c r="M16" t="n">
         <v>361.1373932839518</v>
@@ -5463,25 +5463,25 @@
         <v>677.1325571781871</v>
       </c>
       <c r="S16" t="n">
-        <v>677.1325571781871</v>
+        <v>462.8441339963498</v>
       </c>
       <c r="T16" t="n">
-        <v>677.1325571781871</v>
+        <v>321.5370842839274</v>
       </c>
       <c r="U16" t="n">
-        <v>677.1325571781871</v>
+        <v>32.36347393849532</v>
       </c>
       <c r="V16" t="n">
-        <v>677.1325571781871</v>
+        <v>32.36347393849532</v>
       </c>
       <c r="W16" t="n">
-        <v>677.1325571781871</v>
+        <v>32.36347393849532</v>
       </c>
       <c r="X16" t="n">
-        <v>677.1325571781871</v>
+        <v>32.36347393849532</v>
       </c>
       <c r="Y16" t="n">
-        <v>677.1325571781871</v>
+        <v>32.36347393849532</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1491.915471247702</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C17" t="n">
-        <v>1122.952954307291</v>
+        <v>1293.521057189058</v>
       </c>
       <c r="D17" t="n">
-        <v>764.6872557005402</v>
+        <v>935.2553585823075</v>
       </c>
       <c r="E17" t="n">
-        <v>471.9067899221776</v>
+        <v>935.2553585823075</v>
       </c>
       <c r="F17" t="n">
-        <v>471.9067899221776</v>
+        <v>935.2553585823075</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036445</v>
+        <v>517.2915504804944</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036445</v>
+        <v>190.0968305164972</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5542,25 +5542,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T17" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U17" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V17" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W17" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X17" t="n">
-        <v>2268.654643287636</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y17" t="n">
-        <v>1878.515311311824</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N18" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O18" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P18" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
@@ -5630,7 +5630,7 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>149.5382038240415</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C19" t="n">
-        <v>149.5382038240415</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D19" t="n">
-        <v>149.5382038240415</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5382038240415</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F19" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
         <v>53.94298182036445</v>
@@ -5679,46 +5679,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U19" t="n">
-        <v>438.9553738610022</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="V19" t="n">
-        <v>438.9553738610022</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="W19" t="n">
-        <v>149.5382038240415</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X19" t="n">
-        <v>149.5382038240415</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y19" t="n">
-        <v>149.5382038240415</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>781.1711973675267</v>
+        <v>1470.569074795015</v>
       </c>
       <c r="C20" t="n">
-        <v>412.2086804271149</v>
+        <v>1101.606557854603</v>
       </c>
       <c r="D20" t="n">
-        <v>53.94298182036445</v>
+        <v>743.3408592478529</v>
       </c>
       <c r="E20" t="n">
-        <v>53.94298182036445</v>
+        <v>743.3408592478529</v>
       </c>
       <c r="F20" t="n">
-        <v>53.94298182036445</v>
+        <v>332.3549544582453</v>
       </c>
       <c r="G20" t="n">
         <v>53.94298182036445</v>
@@ -5752,19 +5752,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5776,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U20" t="n">
-        <v>2615.207670282225</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V20" t="n">
-        <v>2284.144782938654</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W20" t="n">
-        <v>1931.37612766854</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X20" t="n">
-        <v>1557.91036940746</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y20" t="n">
-        <v>1167.771037431648</v>
+        <v>1857.168914859137</v>
       </c>
     </row>
     <row r="21">
@@ -5813,16 +5813,16 @@
         <v>814.044945935956</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E21" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F21" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H21" t="n">
         <v>115.9856282673424</v>
@@ -5831,16 +5831,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N21" t="n">
         <v>1748.695370517453</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036445</v>
+        <v>359.2080756496231</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I22" t="n">
         <v>53.94298182036445</v>
@@ -5916,46 +5916,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M22" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064342</v>
+        <v>540.8565404798628</v>
       </c>
       <c r="U22" t="n">
-        <v>728.1289842064342</v>
+        <v>540.8565404798628</v>
       </c>
       <c r="V22" t="n">
-        <v>728.1289842064342</v>
+        <v>540.8565404798628</v>
       </c>
       <c r="W22" t="n">
-        <v>438.7118141694736</v>
+        <v>540.8565404798628</v>
       </c>
       <c r="X22" t="n">
-        <v>210.7222632714563</v>
+        <v>540.8565404798628</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.94298182036445</v>
+        <v>540.8565404798628</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>439.7312344186087</v>
+        <v>422.9054987607761</v>
       </c>
       <c r="C23" t="n">
-        <v>439.7312344186087</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D23" t="n">
-        <v>439.7312344186087</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E23" t="n">
         <v>53.94298182036445</v>
@@ -5989,13 +5989,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6019,22 +6019,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T23" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U23" t="n">
-        <v>1993.54646147304</v>
+        <v>2256.941971675474</v>
       </c>
       <c r="V23" t="n">
-        <v>1662.48357412947</v>
+        <v>1925.879084331904</v>
       </c>
       <c r="W23" t="n">
-        <v>1589.936164719622</v>
+        <v>1573.11042906179</v>
       </c>
       <c r="X23" t="n">
-        <v>1216.470406458542</v>
+        <v>1199.64467080071</v>
       </c>
       <c r="Y23" t="n">
-        <v>826.3310744827304</v>
+        <v>809.505338824898</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H24" t="n">
         <v>115.9856282673424</v>
@@ -6074,10 +6074,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
         <v>1748.695370517453</v>
@@ -6089,28 +6089,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y24" t="n">
         <v>1156.713312237151</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036445</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F25" t="n">
         <v>53.94298182036445</v>
@@ -6153,46 +6153,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M25" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S25" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T25" t="n">
-        <v>343.360151857325</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="U25" t="n">
-        <v>343.360151857325</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="V25" t="n">
-        <v>343.360151857325</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="W25" t="n">
-        <v>53.94298182036445</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="X25" t="n">
-        <v>53.94298182036445</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036445</v>
+        <v>517.6822058285749</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1373.145632153538</v>
+        <v>1215.881273373639</v>
       </c>
       <c r="C26" t="n">
-        <v>1004.183115213127</v>
+        <v>846.9187564332271</v>
       </c>
       <c r="D26" t="n">
-        <v>1004.183115213127</v>
+        <v>488.6530578264766</v>
       </c>
       <c r="E26" t="n">
-        <v>618.3948626148824</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F26" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G26" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T26" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U26" t="n">
-        <v>2169.72394915887</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V26" t="n">
-        <v>2169.72394915887</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W26" t="n">
-        <v>1816.955293888756</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X26" t="n">
-        <v>1816.955293888756</v>
+        <v>1992.620445413572</v>
       </c>
       <c r="Y26" t="n">
-        <v>1759.74547221766</v>
+        <v>1602.481113437761</v>
       </c>
     </row>
     <row r="27">
@@ -6287,16 +6287,16 @@
         <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E27" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F27" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H27" t="n">
         <v>115.9856282673424</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M28" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O28" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T28" t="n">
-        <v>2697.149091018222</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U28" t="n">
-        <v>2697.149091018222</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="V28" t="n">
-        <v>2442.464602812336</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="W28" t="n">
-        <v>2153.047432775375</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1053.350203651864</v>
+        <v>1152.640269254486</v>
       </c>
       <c r="C29" t="n">
-        <v>1053.350203651864</v>
+        <v>783.6777523140745</v>
       </c>
       <c r="D29" t="n">
-        <v>1053.350203651864</v>
+        <v>425.412053707324</v>
       </c>
       <c r="E29" t="n">
-        <v>1053.350203651864</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F29" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G29" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H29" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036445</v>
@@ -6475,13 +6475,13 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q29" t="n">
         <v>2697.149091018222</v>
@@ -6490,25 +6490,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T29" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U29" t="n">
-        <v>2169.72394915887</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V29" t="n">
-        <v>2169.72394915887</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W29" t="n">
-        <v>1816.955293888756</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X29" t="n">
-        <v>1443.489535627676</v>
+        <v>1542.779601230298</v>
       </c>
       <c r="Y29" t="n">
-        <v>1053.350203651864</v>
+        <v>1152.640269254486</v>
       </c>
     </row>
     <row r="30">
@@ -6518,67 +6518,67 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I30" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C31" t="n">
-        <v>473.4444960005474</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D31" t="n">
-        <v>473.4444960005474</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E31" t="n">
-        <v>473.4444960005474</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F31" t="n">
-        <v>380.6911546495019</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="G31" t="n">
-        <v>211.6913543878343</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I31" t="n">
         <v>53.94298182036445</v>
@@ -6627,46 +6627,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M31" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V31" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W31" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X31" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y31" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1053.350203651864</v>
+        <v>1933.544000781331</v>
       </c>
       <c r="C32" t="n">
-        <v>1053.350203651864</v>
+        <v>1933.544000781331</v>
       </c>
       <c r="D32" t="n">
-        <v>695.0845050451137</v>
+        <v>1575.27830217458</v>
       </c>
       <c r="E32" t="n">
-        <v>534.603677789272</v>
+        <v>1189.490049576336</v>
       </c>
       <c r="F32" t="n">
-        <v>534.603677789272</v>
+        <v>778.5041447867286</v>
       </c>
       <c r="G32" t="n">
-        <v>534.603677789272</v>
+        <v>360.5403366849155</v>
       </c>
       <c r="H32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036445</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U32" t="n">
-        <v>2169.72394915887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V32" t="n">
-        <v>2169.72394915887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W32" t="n">
-        <v>1816.955293888756</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X32" t="n">
-        <v>1443.489535627676</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y32" t="n">
-        <v>1053.350203651864</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
         <v>221.4284102424003</v>
@@ -6818,10 +6818,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
         <v>1156.713312237151</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C34" t="n">
-        <v>559.1928012785273</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D34" t="n">
-        <v>559.1928012785273</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E34" t="n">
-        <v>411.2797076961342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F34" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G34" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
         <v>53.94298182036445</v>
@@ -6864,46 +6864,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M34" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V34" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="W34" t="n">
-        <v>728.1289842064342</v>
+        <v>224.4233909876365</v>
       </c>
       <c r="X34" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y34" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>546.1098286224635</v>
+        <v>863.1126181035247</v>
       </c>
       <c r="C35" t="n">
-        <v>546.1098286224635</v>
+        <v>863.1126181035247</v>
       </c>
       <c r="D35" t="n">
-        <v>546.1098286224635</v>
+        <v>504.8469194967742</v>
       </c>
       <c r="E35" t="n">
-        <v>546.1098286224635</v>
+        <v>119.05866689853</v>
       </c>
       <c r="F35" t="n">
-        <v>546.1098286224635</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G35" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J35" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S35" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T35" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U35" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V35" t="n">
-        <v>1662.483574129469</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W35" t="n">
-        <v>1309.714918859355</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X35" t="n">
-        <v>936.2491605982752</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y35" t="n">
-        <v>546.1098286224635</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P36" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y36" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8405610245969</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8405610245969</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="D37" t="n">
-        <v>363.7239216122612</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E37" t="n">
-        <v>215.810828029868</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F37" t="n">
-        <v>215.810828029868</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M37" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S37" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T37" t="n">
-        <v>513.8405610245969</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U37" t="n">
-        <v>513.8405610245969</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V37" t="n">
-        <v>513.8405610245969</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W37" t="n">
-        <v>513.8405610245969</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="X37" t="n">
-        <v>513.8405610245969</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="Y37" t="n">
-        <v>513.8405610245969</v>
+        <v>370.8558756644252</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1338.355738489329</v>
+        <v>1584.923258067584</v>
       </c>
       <c r="C38" t="n">
-        <v>1338.355738489329</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="D38" t="n">
-        <v>1338.355738489329</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E38" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F38" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H38" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J38" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733125</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224073</v>
+        <v>881.282427122408</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7192,34 +7192,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R38" t="n">
-        <v>2670.76122117869</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S38" t="n">
-        <v>2494.58373349286</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T38" t="n">
-        <v>2275.949066464922</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U38" t="n">
-        <v>2022.187281103014</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V38" t="n">
-        <v>1691.124393759443</v>
+        <v>2311.157671598778</v>
       </c>
       <c r="W38" t="n">
-        <v>1338.355738489329</v>
+        <v>1958.389016328664</v>
       </c>
       <c r="X38" t="n">
-        <v>1338.355738489329</v>
+        <v>1584.923258067584</v>
       </c>
       <c r="Y38" t="n">
-        <v>1338.355738489329</v>
+        <v>1584.923258067584</v>
       </c>
     </row>
     <row r="39">
@@ -7229,40 +7229,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J39" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L39" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
         <v>1748.695370517453</v>
@@ -7274,22 +7274,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M40" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406186</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406186</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064342</v>
+        <v>352.6741383092203</v>
       </c>
       <c r="U40" t="n">
-        <v>598.0446400632119</v>
+        <v>63.50052796378827</v>
       </c>
       <c r="V40" t="n">
-        <v>343.360151857325</v>
+        <v>63.50052796378827</v>
       </c>
       <c r="W40" t="n">
-        <v>53.94298182036445</v>
+        <v>63.50052796378827</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036445</v>
+        <v>63.50052796378827</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036445</v>
+        <v>63.50052796378827</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1133.205734407524</v>
+        <v>356.466562367588</v>
       </c>
       <c r="C41" t="n">
-        <v>764.2432174671126</v>
+        <v>356.466562367588</v>
       </c>
       <c r="D41" t="n">
-        <v>745.3464465007369</v>
+        <v>32.36347393849533</v>
       </c>
       <c r="E41" t="n">
-        <v>359.5581939024926</v>
+        <v>32.36347393849533</v>
       </c>
       <c r="F41" t="n">
-        <v>359.5581939024926</v>
+        <v>32.36347393849533</v>
       </c>
       <c r="G41" t="n">
-        <v>359.5581939024926</v>
+        <v>32.36347393849533</v>
       </c>
       <c r="H41" t="n">
-        <v>32.36347393849539</v>
+        <v>32.36347393849533</v>
       </c>
       <c r="I41" t="n">
-        <v>32.36347393849539</v>
+        <v>32.36347393849533</v>
       </c>
       <c r="J41" t="n">
-        <v>32.36347393849539</v>
+        <v>148.1313301714451</v>
       </c>
       <c r="K41" t="n">
-        <v>32.36347393849539</v>
+        <v>442.3821411914437</v>
       </c>
       <c r="L41" t="n">
-        <v>432.8614639273758</v>
+        <v>446.2183168355927</v>
       </c>
       <c r="M41" t="n">
-        <v>833.3594539162561</v>
+        <v>482.1562388357241</v>
       </c>
       <c r="N41" t="n">
-        <v>1233.857443905137</v>
+        <v>759.3699355603535</v>
       </c>
       <c r="O41" t="n">
-        <v>1312.325456776206</v>
+        <v>1159.867925549233</v>
       </c>
       <c r="P41" t="n">
-        <v>1618.173696924769</v>
+        <v>1465.716165697796</v>
       </c>
       <c r="Q41" t="n">
-        <v>1618.173696924769</v>
+        <v>1618.173696924767</v>
       </c>
       <c r="R41" t="n">
-        <v>1563.145007455262</v>
+        <v>1563.14500745526</v>
       </c>
       <c r="S41" t="n">
-        <v>1386.967519769433</v>
+        <v>1386.96751976943</v>
       </c>
       <c r="T41" t="n">
-        <v>1386.967519769433</v>
+        <v>1386.96751976943</v>
       </c>
       <c r="U41" t="n">
-        <v>1133.205734407524</v>
+        <v>1133.205734407522</v>
       </c>
       <c r="V41" t="n">
-        <v>1133.205734407524</v>
+        <v>1133.205734407522</v>
       </c>
       <c r="W41" t="n">
-        <v>1133.205734407524</v>
+        <v>1133.205734407522</v>
       </c>
       <c r="X41" t="n">
-        <v>1133.205734407524</v>
+        <v>1133.205734407522</v>
       </c>
       <c r="Y41" t="n">
-        <v>1133.205734407524</v>
+        <v>743.0664024317098</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>701.7360600584436</v>
+        <v>553.3040041232744</v>
       </c>
       <c r="C42" t="n">
-        <v>701.7360600584436</v>
+        <v>378.8509748421474</v>
       </c>
       <c r="D42" t="n">
-        <v>552.8016503971924</v>
+        <v>378.8509748421474</v>
       </c>
       <c r="E42" t="n">
-        <v>393.5641953917369</v>
+        <v>219.6135198366919</v>
       </c>
       <c r="F42" t="n">
-        <v>247.0296374186218</v>
+        <v>73.07896186357684</v>
       </c>
       <c r="G42" t="n">
-        <v>137.8062559135535</v>
+        <v>32.36347393849533</v>
       </c>
       <c r="H42" t="n">
-        <v>32.36347393849539</v>
+        <v>32.36347393849533</v>
       </c>
       <c r="I42" t="n">
-        <v>32.36347393849539</v>
+        <v>32.36347393849533</v>
       </c>
       <c r="J42" t="n">
-        <v>32.36347393849539</v>
+        <v>107.6206363386252</v>
       </c>
       <c r="K42" t="n">
-        <v>32.36347393849539</v>
+        <v>362.8679567797238</v>
       </c>
       <c r="L42" t="n">
-        <v>432.8614639273758</v>
+        <v>400.3519330249711</v>
       </c>
       <c r="M42" t="n">
-        <v>831.2186663846783</v>
+        <v>659.1456825190792</v>
       </c>
       <c r="N42" t="n">
-        <v>1231.716656373559</v>
+        <v>1059.643672507959</v>
       </c>
       <c r="O42" t="n">
-        <v>1281.92888330994</v>
+        <v>1109.855899444341</v>
       </c>
       <c r="P42" t="n">
-        <v>1618.173696924769</v>
+        <v>1446.10071305917</v>
       </c>
       <c r="Q42" t="n">
-        <v>1618.173696924769</v>
+        <v>1618.173696924767</v>
       </c>
       <c r="R42" t="n">
-        <v>1618.173696924769</v>
+        <v>1567.960326336592</v>
       </c>
       <c r="S42" t="n">
-        <v>1618.173696924769</v>
+        <v>1409.787353980508</v>
       </c>
       <c r="T42" t="n">
-        <v>1419.295149047548</v>
+        <v>1210.908806103287</v>
       </c>
       <c r="U42" t="n">
-        <v>1191.125525018388</v>
+        <v>1210.908806103287</v>
       </c>
       <c r="V42" t="n">
-        <v>955.9734167866452</v>
+        <v>975.756697871544</v>
       </c>
       <c r="W42" t="n">
-        <v>701.7360600584436</v>
+        <v>721.5193411433424</v>
       </c>
       <c r="X42" t="n">
-        <v>701.7360600584436</v>
+        <v>721.5193411433424</v>
       </c>
       <c r="Y42" t="n">
-        <v>701.7360600584436</v>
+        <v>721.5193411433424</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>706.5494763245651</v>
+        <v>485.7568971810354</v>
       </c>
       <c r="C43" t="n">
-        <v>706.5494763245651</v>
+        <v>485.7568971810354</v>
       </c>
       <c r="D43" t="n">
-        <v>706.5494763245651</v>
+        <v>335.6402577686996</v>
       </c>
       <c r="E43" t="n">
-        <v>558.636382742172</v>
+        <v>201.3632742001629</v>
       </c>
       <c r="F43" t="n">
-        <v>411.7464352442616</v>
+        <v>201.3632742001629</v>
       </c>
       <c r="G43" t="n">
-        <v>242.7466349825941</v>
+        <v>32.36347393849533</v>
       </c>
       <c r="H43" t="n">
-        <v>168.6923848398471</v>
+        <v>32.36347393849533</v>
       </c>
       <c r="I43" t="n">
-        <v>32.36347393849539</v>
+        <v>32.36347393849533</v>
       </c>
       <c r="J43" t="n">
-        <v>32.36347393849539</v>
+        <v>32.36347393849533</v>
       </c>
       <c r="K43" t="n">
-        <v>88.66566700476353</v>
+        <v>88.66566700476351</v>
       </c>
       <c r="L43" t="n">
         <v>216.239524565922</v>
       </c>
       <c r="M43" t="n">
-        <v>361.1373932839518</v>
+        <v>361.137393283952</v>
       </c>
       <c r="N43" t="n">
-        <v>508.0245309683809</v>
+        <v>508.0245309683811</v>
       </c>
       <c r="O43" t="n">
-        <v>627.682281477621</v>
+        <v>627.6822814776212</v>
       </c>
       <c r="P43" t="n">
-        <v>706.5494763245651</v>
+        <v>706.5494763245655</v>
       </c>
       <c r="Q43" t="n">
-        <v>706.5494763245651</v>
+        <v>706.5494763245655</v>
       </c>
       <c r="R43" t="n">
-        <v>706.5494763245651</v>
+        <v>706.5494763245655</v>
       </c>
       <c r="S43" t="n">
-        <v>706.5494763245651</v>
+        <v>706.5494763245655</v>
       </c>
       <c r="T43" t="n">
-        <v>706.5494763245651</v>
+        <v>706.5494763245655</v>
       </c>
       <c r="U43" t="n">
-        <v>706.5494763245651</v>
+        <v>706.5494763245655</v>
       </c>
       <c r="V43" t="n">
-        <v>706.5494763245651</v>
+        <v>706.5494763245655</v>
       </c>
       <c r="W43" t="n">
-        <v>706.5494763245651</v>
+        <v>706.5494763245655</v>
       </c>
       <c r="X43" t="n">
-        <v>706.5494763245651</v>
+        <v>706.5494763245655</v>
       </c>
       <c r="Y43" t="n">
-        <v>706.5494763245651</v>
+        <v>485.7568971810354</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1618.173696924769</v>
+        <v>440.9931953841435</v>
       </c>
       <c r="C44" t="n">
-        <v>1618.173696924769</v>
+        <v>440.9931953841435</v>
       </c>
       <c r="D44" t="n">
-        <v>1259.907998318019</v>
+        <v>440.9931953841435</v>
       </c>
       <c r="E44" t="n">
-        <v>874.1197457197745</v>
+        <v>440.9931953841435</v>
       </c>
       <c r="F44" t="n">
-        <v>465.4900242741257</v>
+        <v>32.36347393849533</v>
       </c>
       <c r="G44" t="n">
-        <v>56.86030282847685</v>
+        <v>32.36347393849533</v>
       </c>
       <c r="H44" t="n">
-        <v>32.36347393849539</v>
+        <v>32.36347393849533</v>
       </c>
       <c r="I44" t="n">
-        <v>32.36347393849539</v>
+        <v>32.36347393849533</v>
       </c>
       <c r="J44" t="n">
-        <v>148.1313301714451</v>
+        <v>32.36347393849533</v>
       </c>
       <c r="K44" t="n">
-        <v>148.1313301714451</v>
+        <v>326.614284958494</v>
       </c>
       <c r="L44" t="n">
-        <v>548.6293201603255</v>
+        <v>727.1122749473736</v>
       </c>
       <c r="M44" t="n">
-        <v>870.6942232584588</v>
+        <v>1127.610264936253</v>
       </c>
       <c r="N44" t="n">
-        <v>911.8274667873259</v>
+        <v>1168.743508465121</v>
       </c>
       <c r="O44" t="n">
-        <v>1312.325456776206</v>
+        <v>1194.249202680518</v>
       </c>
       <c r="P44" t="n">
-        <v>1618.173696924769</v>
+        <v>1500.097442829081</v>
       </c>
       <c r="Q44" t="n">
-        <v>1618.173696924769</v>
+        <v>1618.173696924767</v>
       </c>
       <c r="R44" t="n">
-        <v>1618.173696924769</v>
+        <v>1563.14500745526</v>
       </c>
       <c r="S44" t="n">
-        <v>1618.173696924769</v>
+        <v>1386.96751976943</v>
       </c>
       <c r="T44" t="n">
-        <v>1618.173696924769</v>
+        <v>1386.96751976943</v>
       </c>
       <c r="U44" t="n">
-        <v>1618.173696924769</v>
+        <v>1158.655922791836</v>
       </c>
       <c r="V44" t="n">
-        <v>1618.173696924769</v>
+        <v>827.5930354482653</v>
       </c>
       <c r="W44" t="n">
-        <v>1618.173696924769</v>
+        <v>827.5930354482653</v>
       </c>
       <c r="X44" t="n">
-        <v>1618.173696924769</v>
+        <v>827.5930354482653</v>
       </c>
       <c r="Y44" t="n">
-        <v>1618.173696924769</v>
+        <v>827.5930354482653</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>32.36347393849539</v>
+        <v>366.0539582250778</v>
       </c>
       <c r="C45" t="n">
-        <v>32.36347393849539</v>
+        <v>191.6009289439508</v>
       </c>
       <c r="D45" t="n">
-        <v>32.36347393849539</v>
+        <v>191.6009289439508</v>
       </c>
       <c r="E45" t="n">
-        <v>32.36347393849539</v>
+        <v>32.36347393849533</v>
       </c>
       <c r="F45" t="n">
-        <v>32.36347393849539</v>
+        <v>32.36347393849533</v>
       </c>
       <c r="G45" t="n">
-        <v>32.36347393849539</v>
+        <v>32.36347393849533</v>
       </c>
       <c r="H45" t="n">
-        <v>32.36347393849539</v>
+        <v>32.36347393849533</v>
       </c>
       <c r="I45" t="n">
-        <v>32.36347393849539</v>
+        <v>32.36347393849533</v>
       </c>
       <c r="J45" t="n">
-        <v>32.36347393849539</v>
+        <v>32.36347393849533</v>
       </c>
       <c r="K45" t="n">
-        <v>32.36347393849539</v>
+        <v>287.6107943795939</v>
       </c>
       <c r="L45" t="n">
-        <v>432.8614639273758</v>
+        <v>325.0947706248413</v>
       </c>
       <c r="M45" t="n">
-        <v>831.2186663846783</v>
+        <v>480.932903332178</v>
       </c>
       <c r="N45" t="n">
-        <v>1231.716656373559</v>
+        <v>881.4308933210577</v>
       </c>
       <c r="O45" t="n">
-        <v>1281.92888330994</v>
+        <v>1281.928883309937</v>
       </c>
       <c r="P45" t="n">
-        <v>1618.173696924769</v>
+        <v>1618.173696924767</v>
       </c>
       <c r="Q45" t="n">
-        <v>1618.173696924769</v>
+        <v>1618.173696924767</v>
       </c>
       <c r="R45" t="n">
-        <v>1567.960326336594</v>
+        <v>1618.173696924767</v>
       </c>
       <c r="S45" t="n">
-        <v>1409.78735398051</v>
+        <v>1618.173696924767</v>
       </c>
       <c r="T45" t="n">
-        <v>1210.908806103289</v>
+        <v>1439.270559175577</v>
       </c>
       <c r="U45" t="n">
-        <v>982.739182074129</v>
+        <v>1439.270559175577</v>
       </c>
       <c r="V45" t="n">
-        <v>747.5870738423862</v>
+        <v>1204.118450943834</v>
       </c>
       <c r="W45" t="n">
-        <v>493.3497171141846</v>
+        <v>949.8810942156326</v>
       </c>
       <c r="X45" t="n">
-        <v>285.4982169086517</v>
+        <v>742.0295940100998</v>
       </c>
       <c r="Y45" t="n">
-        <v>77.73791814369781</v>
+        <v>534.2692952451459</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>264.2715022447105</v>
+        <v>32.36347393849533</v>
       </c>
       <c r="C46" t="n">
-        <v>264.2715022447105</v>
+        <v>32.36347393849533</v>
       </c>
       <c r="D46" t="n">
-        <v>264.2715022447105</v>
+        <v>32.36347393849533</v>
       </c>
       <c r="E46" t="n">
-        <v>264.2715022447105</v>
+        <v>32.36347393849533</v>
       </c>
       <c r="F46" t="n">
-        <v>264.2715022447105</v>
+        <v>32.36347393849533</v>
       </c>
       <c r="G46" t="n">
-        <v>95.27170198304293</v>
+        <v>32.36347393849533</v>
       </c>
       <c r="H46" t="n">
-        <v>95.27170198304293</v>
+        <v>32.36347393849533</v>
       </c>
       <c r="I46" t="n">
-        <v>32.36347393849539</v>
+        <v>32.36347393849533</v>
       </c>
       <c r="J46" t="n">
-        <v>32.36347393849539</v>
+        <v>32.36347393849533</v>
       </c>
       <c r="K46" t="n">
-        <v>88.66566700476353</v>
+        <v>88.66566700476351</v>
       </c>
       <c r="L46" t="n">
         <v>216.239524565922</v>
       </c>
       <c r="M46" t="n">
-        <v>361.1373932839518</v>
+        <v>361.137393283952</v>
       </c>
       <c r="N46" t="n">
-        <v>508.0245309683809</v>
+        <v>508.0245309683811</v>
       </c>
       <c r="O46" t="n">
-        <v>627.682281477621</v>
+        <v>627.6822814776212</v>
       </c>
       <c r="P46" t="n">
-        <v>706.5494763245651</v>
+        <v>706.5494763245655</v>
       </c>
       <c r="Q46" t="n">
-        <v>706.5494763245651</v>
+        <v>706.5494763245655</v>
       </c>
       <c r="R46" t="n">
-        <v>706.5494763245651</v>
+        <v>706.5494763245655</v>
       </c>
       <c r="S46" t="n">
-        <v>492.2610531427279</v>
+        <v>706.5494763245655</v>
       </c>
       <c r="T46" t="n">
-        <v>492.2610531427279</v>
+        <v>706.5494763245655</v>
       </c>
       <c r="U46" t="n">
-        <v>492.2610531427279</v>
+        <v>576.4651321813428</v>
       </c>
       <c r="V46" t="n">
-        <v>492.2610531427279</v>
+        <v>321.780643975456</v>
       </c>
       <c r="W46" t="n">
-        <v>492.2610531427279</v>
+        <v>32.36347393849533</v>
       </c>
       <c r="X46" t="n">
-        <v>264.2715022447105</v>
+        <v>32.36347393849533</v>
       </c>
       <c r="Y46" t="n">
-        <v>264.2715022447105</v>
+        <v>32.36347393849533</v>
       </c>
     </row>
   </sheetData>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>89.87127487838978</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>26.92237113682282</v>
+        <v>26.92237113682279</v>
       </c>
       <c r="L11" t="n">
-        <v>400.6684993381126</v>
+        <v>400.6684993381118</v>
       </c>
       <c r="M11" t="n">
-        <v>368.2424929179284</v>
+        <v>234.9600755419703</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>362.994693393952</v>
       </c>
       <c r="O11" t="n">
-        <v>378.7800967408924</v>
+        <v>378.7800967408916</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>12.86109185980285</v>
       </c>
       <c r="Q11" t="n">
-        <v>58.31748437003577</v>
+        <v>58.31748437003574</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8768,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>6.639660809448799</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>93.6759921836439</v>
+        <v>340.8071611548976</v>
       </c>
       <c r="N12" t="n">
-        <v>324.5660651408556</v>
+        <v>161.4493775589948</v>
       </c>
       <c r="O12" t="n">
-        <v>353.8240030833321</v>
+        <v>353.8240030833311</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>36.266192922115</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8926,25 +8926,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>52.15938665394273</v>
+        <v>52.1593866539427</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>296.0974561500268</v>
       </c>
       <c r="M14" t="n">
-        <v>368.2424929179283</v>
+        <v>368.2424929179275</v>
       </c>
       <c r="N14" t="n">
-        <v>362.9946933939528</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>311.8828594969685</v>
+        <v>378.7800967408916</v>
       </c>
       <c r="P14" t="n">
-        <v>12.86109185980288</v>
+        <v>12.86109185980285</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K15" t="n">
-        <v>184.3301343824884</v>
+        <v>6.639660809448799</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>329.1571758718113</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>340.8071611548976</v>
       </c>
       <c r="N15" t="n">
-        <v>324.5660651408556</v>
+        <v>324.5660651408548</v>
       </c>
       <c r="O15" t="n">
-        <v>353.8240030833321</v>
+        <v>353.8240030833311</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>36.26619292211498</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9421,7 +9421,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9479,16 +9479,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9722,13 +9722,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10132,7 +10132,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599043</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.64146763747075</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451758</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>52.15938665394273</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>26.92237113682282</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>400.6684993381126</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>368.2424929179283</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>362.9946933939528</v>
+        <v>238.4651042381436</v>
       </c>
       <c r="O41" t="n">
-        <v>53.49729157138675</v>
+        <v>378.7800967408916</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>58.31748437003577</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,19 +11138,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>6.639660809448799</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>366.6808219632658</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>338.64474950684</v>
+        <v>197.6715646955323</v>
       </c>
       <c r="N42" t="n">
-        <v>324.5660651408556</v>
+        <v>324.5660651408549</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>36.266192922115</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>52.15938665394268</v>
       </c>
       <c r="K44" t="n">
-        <v>26.92237113682282</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>400.6684993381126</v>
+        <v>400.6684993381118</v>
       </c>
       <c r="M44" t="n">
-        <v>289.0171526242444</v>
+        <v>368.2424929179275</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>378.7800967408924</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>58.31748437003577</v>
+        <v>177.5864279010316</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K45" t="n">
-        <v>6.639660809448799</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>366.6808219632658</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>338.64474950684</v>
+        <v>93.67599218364214</v>
       </c>
       <c r="N45" t="n">
-        <v>324.5660651408556</v>
+        <v>324.5660651408549</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>353.8240030833314</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>36.266192922115</v>
+        <v>36.26619292211495</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23266,19 +23266,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>2.332621510519118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>9.24074578960267</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>246.0374156154073</v>
       </c>
       <c r="I11" t="n">
-        <v>96.9191867874538</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,25 +23305,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23336,13 +23336,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T12" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8879277888686</v>
+        <v>118.8747565642186</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>184.9411704979091</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23436,10 +23436,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>96.56727500692725</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>22.54869530067492</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23500,19 +23500,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>2.332621510519118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>9.24074578960267</v>
+        <v>9.240745789603466</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>151.9313162448613</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -23554,7 +23554,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>303.5003978690532</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>254.4346434375909</v>
       </c>
     </row>
     <row r="15">
@@ -23588,13 +23588,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>20.35114293399347</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23630,16 +23630,16 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8879277888686</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>184.9411704979091</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23655,19 +23655,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>136.7057146380968</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
         <v>156.1708888417951</v>
@@ -23676,7 +23676,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>85.14112624278607</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23740,7 +23740,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>92.07770895168289</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>17.13900603568982</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>167.3098022590509</v>
@@ -23910,10 +23910,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>40.32635200869791</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
@@ -23949,10 +23949,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>163.0616152066855</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23980,10 +23980,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>138.1563171092929</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -24016,25 +24016,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>170.102160979652</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24147,10 +24147,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>186.3005781489362</v>
       </c>
       <c r="U22" t="n">
         <v>286.2818742419777</v>
@@ -24189,13 +24189,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>63.37316471551392</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24208,13 +24208,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24259,16 +24259,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>44.31323474275192</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>277.4190334016639</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24366,16 +24366,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>167.3098022590509</v>
@@ -24387,7 +24387,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>56.25950038248513</v>
+        <v>16.6927948640033</v>
       </c>
       <c r="U25" t="n">
         <v>286.2818742419777</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24448,22 +24448,22 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>275.4901675905679</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>329.600215201669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24624,7 +24624,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>130.3958356744437</v>
       </c>
       <c r="X28" t="n">
-        <v>96.92615468724728</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24682,25 +24682,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>14.17598890417185</v>
       </c>
       <c r="F29" t="n">
-        <v>307.1011551585402</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24840,28 +24840,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>53.59524008539621</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>97.12753845258926</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
@@ -24897,7 +24897,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24925,19 +24925,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>223.0543510889784</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>20.39139144845166</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,22 +24964,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25077,28 +25077,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>115.1383805067652</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>225.0351054580843</v>
@@ -25137,10 +25137,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>56.93405031343781</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>342.4115175143276</v>
       </c>
       <c r="G35" t="n">
-        <v>250.4617644510741</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -25201,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>7.06063451164232</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
@@ -25335,7 +25335,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2818742419777</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>157.8577263380861</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25393,10 +25393,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,25 +25438,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>28.35441143367417</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>196.844920753174</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>170.3700094999477</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25572,7 +25572,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,25 +25593,25 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>157.4983735401876</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>335.975238363971</v>
+        <v>33.82098407588126</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25645,10 +25645,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25706,13 +25706,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -25721,13 +25721,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>28.3998642331789</v>
+        <v>96.22267887736584</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229331</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>156.5912426325231</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25791,25 +25791,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>13.49974891371787</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>82.85718120047569</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,10 +25830,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>2.332621510519118</v>
+        <v>2.3326215105198</v>
       </c>
       <c r="G44" t="n">
-        <v>9.24074578960267</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>299.6709121632755</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,19 +25912,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>25.19568650047145</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25943,16 +25943,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>121.6124838867169</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25961,10 +25961,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H45" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>19.77565602675116</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26037,16 +26037,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>72.68647602823617</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,28 +26067,28 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401873</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>529061.0774506272</v>
+        <v>529061.0774506268</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>529061.0774506272</v>
+        <v>529061.0774506269</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>699057.7649559247</v>
+        <v>699057.7649559246</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>699057.7649559247</v>
+        <v>699057.7649559246</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>699057.7649559247</v>
+        <v>699057.7649559246</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>699057.7649559246</v>
+        <v>699057.7649559247</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>699057.7649559246</v>
+        <v>699057.7649559247</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>699057.7649559246</v>
+        <v>699057.7649559247</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>529061.0774506271</v>
+        <v>529061.0774506268</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>529061.0774506272</v>
+        <v>529061.0774506266</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>593975.3455698526</v>
       </c>
       <c r="C2" t="n">
-        <v>593975.3455698525</v>
+        <v>593975.3455698526</v>
       </c>
       <c r="D2" t="n">
-        <v>593975.3455698526</v>
+        <v>593975.3455698527</v>
       </c>
       <c r="E2" t="n">
-        <v>326679.8850487881</v>
+        <v>326679.8850487879</v>
       </c>
       <c r="F2" t="n">
-        <v>326679.8850487881</v>
+        <v>326679.8850487879</v>
       </c>
       <c r="G2" t="n">
+        <v>419271.2845228482</v>
+      </c>
+      <c r="H2" t="n">
+        <v>419271.2845228482</v>
+      </c>
+      <c r="I2" t="n">
         <v>419271.2845228483</v>
       </c>
-      <c r="H2" t="n">
-        <v>419271.2845228481</v>
-      </c>
-      <c r="I2" t="n">
-        <v>419271.2845228482</v>
-      </c>
       <c r="J2" t="n">
-        <v>419271.2845228481</v>
+        <v>419271.2845228485</v>
       </c>
       <c r="K2" t="n">
-        <v>419271.2845228482</v>
+        <v>419271.2845228483</v>
       </c>
       <c r="L2" t="n">
-        <v>419271.2845228481</v>
+        <v>419271.2845228484</v>
       </c>
       <c r="M2" t="n">
-        <v>419271.2845228482</v>
+        <v>419271.2845228483</v>
       </c>
       <c r="N2" t="n">
         <v>419271.2845228483</v>
       </c>
       <c r="O2" t="n">
-        <v>326679.885048788</v>
+        <v>326679.8850487877</v>
       </c>
       <c r="P2" t="n">
-        <v>326679.885048788</v>
+        <v>326679.8850487879</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>424268.159583101</v>
+        <v>424268.1595831008</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>73932.74272252603</v>
+        <v>73932.74272252625</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>100813.83949211</v>
+        <v>100813.8394921099</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>409397.0283363865</v>
       </c>
       <c r="E4" t="n">
-        <v>67520.95940498338</v>
+        <v>67520.95940498324</v>
       </c>
       <c r="F4" t="n">
-        <v>67520.95940498338</v>
+        <v>67520.95940498324</v>
       </c>
       <c r="G4" t="n">
         <v>106808.022922681</v>
       </c>
       <c r="H4" t="n">
-        <v>106808.0229226811</v>
+        <v>106808.022922681</v>
       </c>
       <c r="I4" t="n">
         <v>106808.022922681</v>
@@ -26456,10 +26456,10 @@
         <v>106808.022922681</v>
       </c>
       <c r="O4" t="n">
-        <v>67520.95940498338</v>
+        <v>67520.95940498325</v>
       </c>
       <c r="P4" t="n">
-        <v>67520.95940498338</v>
+        <v>67520.95940498325</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>32831.05207318898</v>
+        <v>32831.05207318893</v>
       </c>
       <c r="F5" t="n">
-        <v>32831.05207318898</v>
+        <v>32831.05207318893</v>
       </c>
       <c r="G5" t="n">
         <v>49231.47806340946</v>
@@ -26502,16 +26502,16 @@
         <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340948</v>
       </c>
       <c r="O5" t="n">
-        <v>32831.05207318898</v>
+        <v>32831.05207318894</v>
       </c>
       <c r="P5" t="n">
-        <v>32831.05207318898</v>
+        <v>32831.05207318894</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>150950.7172334661</v>
+        <v>150906.581454785</v>
       </c>
       <c r="C6" t="n">
-        <v>150950.717233466</v>
+        <v>150906.581454785</v>
       </c>
       <c r="D6" t="n">
-        <v>150950.7172334661</v>
+        <v>150906.5814547851</v>
       </c>
       <c r="E6" t="n">
-        <v>-197940.2860124853</v>
+        <v>-207201.5066367202</v>
       </c>
       <c r="F6" t="n">
-        <v>226327.8735706157</v>
+        <v>217066.6529463807</v>
       </c>
       <c r="G6" t="n">
-        <v>189299.0408142318</v>
+        <v>183230.6270684122</v>
       </c>
       <c r="H6" t="n">
-        <v>263231.7835367576</v>
+        <v>257163.3697909385</v>
       </c>
       <c r="I6" t="n">
-        <v>263231.7835367577</v>
+        <v>257163.3697909386</v>
       </c>
       <c r="J6" t="n">
-        <v>263231.7835367576</v>
+        <v>257163.3697909388</v>
       </c>
       <c r="K6" t="n">
-        <v>263231.7835367577</v>
+        <v>257163.3697909386</v>
       </c>
       <c r="L6" t="n">
-        <v>263231.7835367576</v>
+        <v>257163.3697909387</v>
       </c>
       <c r="M6" t="n">
-        <v>162417.9440446476</v>
+        <v>156349.5302988287</v>
       </c>
       <c r="N6" t="n">
-        <v>263231.7835367578</v>
+        <v>257163.3697909386</v>
       </c>
       <c r="O6" t="n">
-        <v>226327.8735706156</v>
+        <v>217066.6529463805</v>
       </c>
       <c r="P6" t="n">
-        <v>226327.8735706157</v>
+        <v>217066.6529463806</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
     </row>
     <row r="4">
@@ -26798,10 +26798,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>404.5434242311923</v>
+        <v>404.5434242311915</v>
       </c>
       <c r="F4" t="n">
-        <v>404.5434242311923</v>
+        <v>404.5434242311915</v>
       </c>
       <c r="G4" t="n">
         <v>674.2872727545556</v>
@@ -26822,16 +26822,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="O4" t="n">
-        <v>404.5434242311923</v>
+        <v>404.5434242311916</v>
       </c>
       <c r="P4" t="n">
-        <v>404.5434242311923</v>
+        <v>404.5434242311916</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>404.5434242311923</v>
+        <v>404.5434242311915</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>269.7438485233633</v>
+        <v>269.7438485233641</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>404.5434242311923</v>
+        <v>404.5434242311916</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>404.5434242311923</v>
+        <v>404.5434242311915</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>269.7438485233633</v>
+        <v>269.7438485233641</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31758,19 +31758,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
@@ -31785,13 +31785,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31858,22 +31858,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K13" t="n">
         <v>79.14039391302239</v>
@@ -31934,16 +31934,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P13" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
@@ -31995,19 +31995,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
@@ -32022,13 +32022,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32095,22 +32095,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K16" t="n">
         <v>79.14039391302239</v>
@@ -32171,16 +32171,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P16" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
@@ -32232,19 +32232,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L17" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
@@ -32259,13 +32259,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I18" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32332,22 +32332,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K19" t="n">
         <v>79.14039391302239</v>
@@ -32408,16 +32408,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P19" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
@@ -32469,19 +32469,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L20" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
@@ -32496,13 +32496,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I21" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32569,22 +32569,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K22" t="n">
         <v>79.14039391302239</v>
@@ -32645,16 +32645,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P22" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -32706,19 +32706,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L23" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32733,13 +32733,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I24" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32806,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32882,16 +32882,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32943,19 +32943,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L26" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32970,13 +32970,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I27" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33043,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33119,16 +33119,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33180,19 +33180,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L29" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33207,13 +33207,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I30" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33280,22 +33280,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33356,16 +33356,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33417,19 +33417,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L32" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33444,13 +33444,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I33" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33517,22 +33517,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33593,16 +33593,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33654,19 +33654,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L35" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33681,13 +33681,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I36" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33754,22 +33754,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33830,16 +33830,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -33891,43 +33891,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L38" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N38" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P38" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q38" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I39" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K39" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L39" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M39" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N39" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O39" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q39" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34067,25 +34067,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,43 +34128,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L41" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N41" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P41" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q41" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I42" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K42" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L42" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M42" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N42" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O42" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q42" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34304,25 +34304,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,43 +34365,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L44" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N44" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P44" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q44" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I45" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K45" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L45" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M45" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N45" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O45" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q45" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S45" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I46" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34541,25 +34541,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35409,25 +35409,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>37.71188822444705</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>404.5434242311923</v>
+        <v>404.5434242311915</v>
       </c>
       <c r="M11" t="n">
-        <v>404.5434242311923</v>
+        <v>271.2610068552344</v>
       </c>
       <c r="N11" t="n">
-        <v>41.54873083723948</v>
+        <v>404.5434242311915</v>
       </c>
       <c r="O11" t="n">
-        <v>404.5434242311923</v>
+        <v>404.5434242311915</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116798</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>37.86260226792655</v>
       </c>
       <c r="M12" t="n">
-        <v>157.4122552599378</v>
+        <v>404.5434242311915</v>
       </c>
       <c r="N12" t="n">
-        <v>404.5434242311923</v>
+        <v>241.4267366493315</v>
       </c>
       <c r="O12" t="n">
-        <v>404.5434242311923</v>
+        <v>404.5434242311915</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,19 +35649,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>3.874924893079708</v>
+        <v>299.9723810431066</v>
       </c>
       <c r="M14" t="n">
-        <v>404.5434242311923</v>
+        <v>404.5434242311915</v>
       </c>
       <c r="N14" t="n">
-        <v>404.5434242311923</v>
+        <v>41.54873083723953</v>
       </c>
       <c r="O14" t="n">
-        <v>337.6461869872683</v>
+        <v>404.5434242311915</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>177.6904735730396</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>37.86260226792655</v>
+        <v>367.0197781397379</v>
       </c>
       <c r="M15" t="n">
-        <v>63.73626307629388</v>
+        <v>404.5434242311915</v>
       </c>
       <c r="N15" t="n">
-        <v>404.5434242311923</v>
+        <v>404.5434242311915</v>
       </c>
       <c r="O15" t="n">
-        <v>404.5434242311923</v>
+        <v>404.5434242311915</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>21.17845723362751</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181308</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K17" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O17" t="n">
         <v>406.5635087530452</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35974,16 +35974,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K20" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36141,7 +36141,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K21" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M21" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
         <v>173.8110948137341</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.9372285181308</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K23" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M24" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q24" t="n">
         <v>173.8110948137341</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.9372285181308</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K26" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36685,16 +36685,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K29" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36852,7 +36852,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q29" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898686</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36922,16 +36922,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K32" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37159,16 +37159,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K35" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37396,16 +37396,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181308</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P38" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K39" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L39" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M39" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355125</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
         <v>173.8110948137341</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37715,10 +37715,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O40" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L41" t="n">
-        <v>404.5434242311923</v>
+        <v>3.874924893079822</v>
       </c>
       <c r="M41" t="n">
-        <v>404.5434242311923</v>
+        <v>36.3009313132641</v>
       </c>
       <c r="N41" t="n">
-        <v>404.5434242311923</v>
+        <v>280.0138350753832</v>
       </c>
       <c r="O41" t="n">
-        <v>79.2606190616866</v>
+        <v>404.5434242311916</v>
       </c>
       <c r="P41" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L42" t="n">
-        <v>404.5434242311923</v>
+        <v>37.8626022679266</v>
       </c>
       <c r="M42" t="n">
-        <v>402.3810125831338</v>
+        <v>261.4078277718263</v>
       </c>
       <c r="N42" t="n">
-        <v>404.5434242311923</v>
+        <v>404.5434242311916</v>
       </c>
       <c r="O42" t="n">
-        <v>50.71942114786026</v>
+        <v>50.71942114786034</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37952,10 +37952,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O43" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.937228518131</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L44" t="n">
-        <v>404.5434242311923</v>
+        <v>404.5434242311916</v>
       </c>
       <c r="M44" t="n">
-        <v>325.3180839375084</v>
+        <v>404.5434242311916</v>
       </c>
       <c r="N44" t="n">
-        <v>41.54873083723948</v>
+        <v>41.54873083723959</v>
       </c>
       <c r="O44" t="n">
-        <v>404.5434242311923</v>
+        <v>25.76332749029996</v>
       </c>
       <c r="P44" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>119.2689435309959</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L45" t="n">
-        <v>404.5434242311923</v>
+        <v>37.8626022679266</v>
       </c>
       <c r="M45" t="n">
-        <v>402.3810125831338</v>
+        <v>157.4122552599361</v>
       </c>
       <c r="N45" t="n">
-        <v>404.5434242311923</v>
+        <v>404.5434242311916</v>
       </c>
       <c r="O45" t="n">
-        <v>50.71942114786026</v>
+        <v>404.5434242311916</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38189,10 +38189,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O46" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
